--- a/заказы/статистика филиалы/2024/06,24/13,06,24 ПОКОМ КИ филиалы/дв 13,06,24 млрсч пок ки.xlsx
+++ b/заказы/статистика филиалы/2024/06,24/13,06,24 ПОКОМ КИ филиалы/дв 13,06,24 млрсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\13,06,24 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\06,24\13,06,24 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E85F3D-D6A3-41E9-92B1-5A58456B0067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB03C4-7376-42C1-845C-E0DBA8B5F7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="140">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -449,6 +449,9 @@
   <si>
     <t>17,06,</t>
   </si>
+  <si>
+    <t>ротация ОР / Химич 0,7т</t>
+  </si>
 </sst>
 </file>
 
@@ -488,7 +491,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -565,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -585,6 +594,7 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -891,10 +901,10 @@
   <dimension ref="A1:AX499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AG8" sqref="AG8"/>
+      <selection pane="bottomRight" activeCell="T92" sqref="T92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1153,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -1180,7 +1190,9 @@
       <c r="AB4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" s="1"/>
+      <c r="AC4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -1286,7 +1298,9 @@
         <f t="shared" si="1"/>
         <v>4367.0843999999997</v>
       </c>
-      <c r="AC5" s="1"/>
+      <c r="AC5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AD5" s="4">
         <f>SUM(AD6:AD499)</f>
         <v>7500</v>
@@ -10892,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="AD98" s="1">
         <f t="shared" si="20"/>
